--- a/medicine/Œil et vue/Ray-Ban_Aviator/Ray-Ban_Aviator.xlsx
+++ b/medicine/Œil et vue/Ray-Ban_Aviator/Ray-Ban_Aviator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ray-Ban Aviator, dites parfois  lunettes aviateur, sont des lunettes de soleil conçues par l'opticien américain Bausch &amp; Lomb et commercialisées sous la marque Ray-Ban à partir de 1937. Les Ray-Ban Aviator se caractérisent notamment par la forme, la nature de leurs verres et leur monture métallique particulièrement fine.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine de la Ray-Ban Aviator est une commande de l'armée de l'air américaine au début des années 1930[1],[2]. L'US Air Force commande à l'opticien new-yorkais Bausch &amp; Lomb des lunettes de soleil particulièrement filtrantes pour ses pilotes, afin de les protéger durant leurs manœuvres en cas de forte luminosité[1]. Les lunettes aviateurs sont à l'origine réservées à l'armée américaine[1].
-Les lunettes "aviateur" sont commercialisées à partir de 1936 sous l'appellation « Anti-Glare »[2]. C'est l'année suivante, en 1937, que leur image est repensée et qu'elles sont commercialisées sous la marque Ray-Ban, créée pour l'occasion[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de la Ray-Ban Aviator est une commande de l'armée de l'air américaine au début des années 1930,. L'US Air Force commande à l'opticien new-yorkais Bausch &amp; Lomb des lunettes de soleil particulièrement filtrantes pour ses pilotes, afin de les protéger durant leurs manœuvres en cas de forte luminosité. Les lunettes aviateurs sont à l'origine réservées à l'armée américaine.
+Les lunettes "aviateur" sont commercialisées à partir de 1936 sous l'appellation « Anti-Glare ». C'est l'année suivante, en 1937, que leur image est repensée et qu'elles sont commercialisées sous la marque Ray-Ban, créée pour l'occasion.
 </t>
         </is>
       </c>
